--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Hras-Insr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Hras-Insr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.105724</v>
+        <v>7.533107333333334</v>
       </c>
       <c r="H2">
-        <v>30.317172</v>
+        <v>22.599322</v>
       </c>
       <c r="I2">
-        <v>0.5504853801993582</v>
+        <v>0.4772251808959424</v>
       </c>
       <c r="J2">
-        <v>0.5504853801993582</v>
+        <v>0.4772251808959424</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.33599166666667</v>
+        <v>8.533046666666666</v>
       </c>
       <c r="N2">
-        <v>52.007975</v>
+        <v>25.59914</v>
       </c>
       <c r="O2">
-        <v>0.4573561888773979</v>
+        <v>0.2932132236642383</v>
       </c>
       <c r="P2">
-        <v>0.4573561888773979</v>
+        <v>0.2932132236642383</v>
       </c>
       <c r="Q2">
-        <v>175.1927470496334</v>
+        <v>64.28035642034222</v>
       </c>
       <c r="R2">
-        <v>1576.7347234467</v>
+        <v>578.52320778308</v>
       </c>
       <c r="S2">
-        <v>0.2517678955207038</v>
+        <v>0.1399287337042485</v>
       </c>
       <c r="T2">
-        <v>0.2517678955207038</v>
+        <v>0.1399287337042485</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.105724</v>
+        <v>7.533107333333334</v>
       </c>
       <c r="H3">
-        <v>30.317172</v>
+        <v>22.599322</v>
       </c>
       <c r="I3">
-        <v>0.5504853801993582</v>
+        <v>0.4772251808959424</v>
       </c>
       <c r="J3">
-        <v>0.5504853801993582</v>
+        <v>0.4772251808959424</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>27.233122</v>
       </c>
       <c r="O3">
-        <v>0.2394870573052156</v>
+        <v>0.3119288965200195</v>
       </c>
       <c r="P3">
-        <v>0.2394870573052156</v>
+        <v>0.3119288965200194</v>
       </c>
       <c r="Q3">
-        <v>91.73680486344269</v>
+        <v>68.38334368258712</v>
       </c>
       <c r="R3">
-        <v>825.631243770984</v>
+        <v>615.4500931432841</v>
       </c>
       <c r="S3">
-        <v>0.1318341237934871</v>
+        <v>0.148860324068438</v>
       </c>
       <c r="T3">
-        <v>0.1318341237934871</v>
+        <v>0.148860324068438</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.105724</v>
+        <v>7.533107333333334</v>
       </c>
       <c r="H4">
-        <v>30.317172</v>
+        <v>22.599322</v>
       </c>
       <c r="I4">
-        <v>0.5504853801993582</v>
+        <v>0.4772251808959424</v>
       </c>
       <c r="J4">
-        <v>0.5504853801993582</v>
+        <v>0.4772251808959424</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>34.473282</v>
       </c>
       <c r="O4">
-        <v>0.3031567538173866</v>
+        <v>0.3948578798157423</v>
       </c>
       <c r="P4">
-        <v>0.3031567538173866</v>
+        <v>0.3948578798157423</v>
       </c>
       <c r="Q4">
-        <v>116.125824422056</v>
+        <v>86.56364447942266</v>
       </c>
       <c r="R4">
-        <v>1045.132419798504</v>
+        <v>779.072800314804</v>
       </c>
       <c r="S4">
-        <v>0.1668833608851673</v>
+        <v>0.1884361231232559</v>
       </c>
       <c r="T4">
-        <v>0.1668833608851673</v>
+        <v>0.1884361231232559</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.009377999999999</v>
+        <v>5.009378000000001</v>
       </c>
       <c r="H5">
         <v>15.028134</v>
       </c>
       <c r="I5">
-        <v>0.2728740021884924</v>
+        <v>0.3173459790819593</v>
       </c>
       <c r="J5">
-        <v>0.2728740021884924</v>
+        <v>0.3173459790819593</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.33599166666667</v>
+        <v>8.533046666666666</v>
       </c>
       <c r="N5">
-        <v>52.007975</v>
+        <v>25.59914</v>
       </c>
       <c r="O5">
-        <v>0.4573561888773979</v>
+        <v>0.2932132236642383</v>
       </c>
       <c r="P5">
-        <v>0.4573561888773979</v>
+        <v>0.2932132236642383</v>
       </c>
       <c r="Q5">
-        <v>86.84253526318332</v>
+        <v>42.74525624497333</v>
       </c>
       <c r="R5">
-        <v>781.5828173686499</v>
+        <v>384.70730620476</v>
       </c>
       <c r="S5">
-        <v>0.1248006136846516</v>
+        <v>0.09305003754350523</v>
       </c>
       <c r="T5">
-        <v>0.1248006136846516</v>
+        <v>0.09305003754350522</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.009377999999999</v>
+        <v>5.009378000000001</v>
       </c>
       <c r="H6">
         <v>15.028134</v>
       </c>
       <c r="I6">
-        <v>0.2728740021884924</v>
+        <v>0.3173459790819593</v>
       </c>
       <c r="J6">
-        <v>0.2728740021884924</v>
+        <v>0.3173459790819593</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>27.233122</v>
       </c>
       <c r="O6">
-        <v>0.2394870573052156</v>
+        <v>0.3119288965200195</v>
       </c>
       <c r="P6">
-        <v>0.2394870573052156</v>
+        <v>0.3119288965200194</v>
       </c>
       <c r="Q6">
-        <v>45.47366740603866</v>
+        <v>45.47366740603868</v>
       </c>
       <c r="R6">
-        <v>409.263006654348</v>
+        <v>409.2630066543481</v>
       </c>
       <c r="S6">
-        <v>0.065349791799219</v>
+        <v>0.09898938107010076</v>
       </c>
       <c r="T6">
-        <v>0.06534979179921901</v>
+        <v>0.09898938107010072</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.009377999999999</v>
+        <v>5.009378000000001</v>
       </c>
       <c r="H7">
         <v>15.028134</v>
       </c>
       <c r="I7">
-        <v>0.2728740021884924</v>
+        <v>0.3173459790819593</v>
       </c>
       <c r="J7">
-        <v>0.2728740021884924</v>
+        <v>0.3173459790819593</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>34.473282</v>
       </c>
       <c r="O7">
-        <v>0.3031567538173866</v>
+        <v>0.3948578798157423</v>
       </c>
       <c r="P7">
-        <v>0.3031567538173866</v>
+        <v>0.3948578798157423</v>
       </c>
       <c r="Q7">
-        <v>57.56323347953198</v>
+        <v>57.563233479532</v>
       </c>
       <c r="R7">
-        <v>518.0691013157879</v>
+        <v>518.069101315788</v>
       </c>
       <c r="S7">
-        <v>0.0827235967046218</v>
+        <v>0.1253065604683534</v>
       </c>
       <c r="T7">
-        <v>0.08272359670462182</v>
+        <v>0.1253065604683533</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>9.728222000000001</v>
       </c>
       <c r="I8">
-        <v>0.1766406176121494</v>
+        <v>0.2054288400220983</v>
       </c>
       <c r="J8">
-        <v>0.1766406176121494</v>
+        <v>0.2054288400220983</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.33599166666667</v>
+        <v>8.533046666666666</v>
       </c>
       <c r="N8">
-        <v>52.007975</v>
+        <v>25.59914</v>
       </c>
       <c r="O8">
-        <v>0.4573561888773979</v>
+        <v>0.2932132236642383</v>
       </c>
       <c r="P8">
-        <v>0.4573561888773979</v>
+        <v>0.2932132236642383</v>
       </c>
       <c r="Q8">
-        <v>56.21612517449445</v>
+        <v>27.67045743656444</v>
       </c>
       <c r="R8">
-        <v>505.94512657045</v>
+        <v>249.03411692908</v>
       </c>
       <c r="S8">
-        <v>0.0807876796720424</v>
+        <v>0.06023445241648454</v>
       </c>
       <c r="T8">
-        <v>0.0807876796720424</v>
+        <v>0.06023445241648454</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>9.728222000000001</v>
       </c>
       <c r="I9">
-        <v>0.1766406176121494</v>
+        <v>0.2054288400220983</v>
       </c>
       <c r="J9">
-        <v>0.1766406176121494</v>
+        <v>0.2054288400220983</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>27.233122</v>
       </c>
       <c r="O9">
-        <v>0.2394870573052156</v>
+        <v>0.3119288965200195</v>
       </c>
       <c r="P9">
-        <v>0.2394870573052156</v>
+        <v>0.3119288965200194</v>
       </c>
       <c r="Q9">
         <v>29.43665072989823</v>
@@ -1004,10 +1004,10 @@
         <v>264.9298565690841</v>
       </c>
       <c r="S9">
-        <v>0.04230314171250949</v>
+        <v>0.06407919138148074</v>
       </c>
       <c r="T9">
-        <v>0.04230314171250948</v>
+        <v>0.06407919138148073</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>9.728222000000001</v>
       </c>
       <c r="I10">
-        <v>0.1766406176121494</v>
+        <v>0.2054288400220983</v>
       </c>
       <c r="J10">
-        <v>0.1766406176121494</v>
+        <v>0.2054288400220983</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>34.473282</v>
       </c>
       <c r="O10">
-        <v>0.3031567538173866</v>
+        <v>0.3948578798157423</v>
       </c>
       <c r="P10">
-        <v>0.3031567538173866</v>
+        <v>0.3948578798157423</v>
       </c>
       <c r="Q10">
         <v>37.26263781828933</v>
@@ -1066,10 +1066,10 @@
         <v>335.363740364604</v>
       </c>
       <c r="S10">
-        <v>0.05354979622759749</v>
+        <v>0.08111519622413303</v>
       </c>
       <c r="T10">
-        <v>0.05354979622759749</v>
+        <v>0.08111519622413303</v>
       </c>
     </row>
   </sheetData>
